--- a/Code/Results/Cases/Case_0_75/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_75/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.143015644653264</v>
+        <v>4.917506253870776</v>
       </c>
       <c r="D2">
-        <v>6.799571501713757</v>
+        <v>9.696610877278069</v>
       </c>
       <c r="E2">
-        <v>8.457385142315076</v>
+        <v>13.72316626336374</v>
       </c>
       <c r="F2">
-        <v>18.71416001680986</v>
+        <v>29.6099356654798</v>
       </c>
       <c r="G2">
-        <v>19.37496139985121</v>
+        <v>28.99315455355914</v>
       </c>
       <c r="H2">
-        <v>8.133252375805625</v>
+        <v>14.44729006807796</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.519394289997486</v>
+        <v>9.911994425744528</v>
       </c>
       <c r="K2">
-        <v>21.1089994008802</v>
+        <v>14.10343815003689</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.29653115367639</v>
+        <v>16.80414170420432</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>12.93881766473331</v>
+        <v>22.00389371730394</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.65081932452211</v>
+        <v>4.749967865506476</v>
       </c>
       <c r="D3">
-        <v>6.589727253151779</v>
+        <v>9.674964650762169</v>
       </c>
       <c r="E3">
-        <v>8.38699107634555</v>
+        <v>13.75201404084057</v>
       </c>
       <c r="F3">
-        <v>18.62837025700217</v>
+        <v>29.74426335292127</v>
       </c>
       <c r="G3">
-        <v>19.23038337361537</v>
+        <v>29.17473534243246</v>
       </c>
       <c r="H3">
-        <v>8.253119737089989</v>
+        <v>14.51812966689989</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.590160010326304</v>
+        <v>9.94597073408687</v>
       </c>
       <c r="K3">
-        <v>19.79317291120007</v>
+        <v>13.50087353984994</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.36189912312751</v>
+        <v>16.55297541014077</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.06317269953182</v>
+        <v>22.13074518779434</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.331494259745564</v>
+        <v>4.645491827508812</v>
       </c>
       <c r="D4">
-        <v>6.459973234744179</v>
+        <v>9.662934505219589</v>
       </c>
       <c r="E4">
-        <v>8.349067050026431</v>
+        <v>13.77213439681326</v>
       </c>
       <c r="F4">
-        <v>18.60105676127473</v>
+        <v>29.8354222229928</v>
       </c>
       <c r="G4">
-        <v>19.18246030180975</v>
+        <v>29.2983656463721</v>
       </c>
       <c r="H4">
-        <v>8.334018098413893</v>
+        <v>14.56451092798892</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.636146754174977</v>
+        <v>9.968094908805655</v>
       </c>
       <c r="K4">
-        <v>18.93968181953576</v>
+        <v>13.11646922174864</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.76090634476491</v>
+        <v>16.39811253292635</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.15762862866495</v>
+        <v>22.21461342758883</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.197031042760528</v>
+        <v>4.602589742871721</v>
       </c>
       <c r="D5">
-        <v>6.406941273487013</v>
+        <v>9.658352420355696</v>
       </c>
       <c r="E5">
-        <v>8.334925765969244</v>
+        <v>13.78093870230616</v>
       </c>
       <c r="F5">
-        <v>18.59605260743673</v>
+        <v>29.8747445970914</v>
       </c>
       <c r="G5">
-        <v>19.17274114001503</v>
+        <v>29.35177645697625</v>
       </c>
       <c r="H5">
-        <v>8.368737563310534</v>
+        <v>14.58413707858025</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.655512877131809</v>
+        <v>9.977428685119964</v>
       </c>
       <c r="K5">
-        <v>18.58045029577839</v>
+        <v>12.95638012159332</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.50933337822084</v>
+        <v>16.33490770073204</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.20041366071375</v>
+        <v>22.25029046147701</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.174440736705834</v>
+        <v>4.5954484803122</v>
       </c>
       <c r="D6">
-        <v>6.398128135066769</v>
+        <v>9.657611005239222</v>
       </c>
       <c r="E6">
-        <v>8.332656308909348</v>
+        <v>13.7824371855153</v>
       </c>
       <c r="F6">
-        <v>18.5955840604696</v>
+        <v>29.88140512208815</v>
       </c>
       <c r="G6">
-        <v>19.1717053897512</v>
+        <v>29.36082766573555</v>
       </c>
       <c r="H6">
-        <v>8.374606264394275</v>
+        <v>14.58743979476639</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.658766106758904</v>
+        <v>9.978997772776015</v>
       </c>
       <c r="K6">
-        <v>18.52011138762056</v>
+        <v>12.92959557066955</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.46716279497145</v>
+        <v>16.32440865780165</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.20777002468555</v>
+        <v>22.25630509173292</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.329698438883906</v>
+        <v>4.644914454135577</v>
       </c>
       <c r="D7">
-        <v>6.459258560194238</v>
+        <v>9.662871408578141</v>
       </c>
       <c r="E7">
-        <v>8.348871046489457</v>
+        <v>13.77225068524274</v>
       </c>
       <c r="F7">
-        <v>18.60096481088956</v>
+        <v>29.83594374569102</v>
       </c>
       <c r="G7">
-        <v>19.18229014994027</v>
+        <v>29.29907372231997</v>
       </c>
       <c r="H7">
-        <v>8.334479345293092</v>
+        <v>14.5647726761651</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.63640541173513</v>
+        <v>9.968219499148038</v>
       </c>
       <c r="K7">
-        <v>18.9348833069244</v>
+        <v>13.11432387196642</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.75754028750356</v>
+        <v>16.39726043601362</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.15818859300228</v>
+        <v>22.21508851206016</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.976838968250999</v>
+        <v>4.860116706718534</v>
       </c>
       <c r="D8">
-        <v>6.727447691314234</v>
+        <v>9.688887624216692</v>
       </c>
       <c r="E8">
-        <v>8.432002861299397</v>
+        <v>13.7326130748869</v>
       </c>
       <c r="F8">
-        <v>18.67916976359387</v>
+        <v>29.65444500336345</v>
       </c>
       <c r="G8">
-        <v>19.31637049556629</v>
+        <v>29.05323103635409</v>
       </c>
       <c r="H8">
-        <v>8.173015911627385</v>
+        <v>14.47111658292362</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.543260551582263</v>
+        <v>9.923447713486961</v>
       </c>
       <c r="K8">
-        <v>20.66477222447915</v>
+        <v>13.89877238499454</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.97998242854835</v>
+        <v>16.71771257518236</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>12.97778027621622</v>
+        <v>22.04638840378065</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.111562315448442</v>
+        <v>5.266315428261748</v>
       </c>
       <c r="D9">
-        <v>7.243247963767783</v>
+        <v>9.749756310899205</v>
       </c>
       <c r="E9">
-        <v>8.637798708248175</v>
+        <v>13.67400095835449</v>
       </c>
       <c r="F9">
-        <v>19.04406912691967</v>
+        <v>29.36778117698427</v>
       </c>
       <c r="G9">
-        <v>19.92115727595114</v>
+        <v>28.66841932506133</v>
       </c>
       <c r="H9">
-        <v>7.918355533786632</v>
+        <v>14.31035938735783</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.381312315810153</v>
+        <v>9.845645254196659</v>
       </c>
       <c r="K9">
-        <v>23.69520971182377</v>
+        <v>15.31564081568551</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.28079595467207</v>
+        <v>17.33817253108766</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>12.77957562464628</v>
+        <v>21.76319992149926</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.865463687705388</v>
+        <v>5.551448256862575</v>
       </c>
       <c r="D10">
-        <v>7.612568021633459</v>
+        <v>9.800265929788482</v>
       </c>
       <c r="E10">
-        <v>8.815923071146207</v>
+        <v>13.64260756302609</v>
       </c>
       <c r="F10">
-        <v>19.45369868778619</v>
+        <v>29.1998871089558</v>
       </c>
       <c r="G10">
-        <v>20.59343626957354</v>
+        <v>28.4463039870212</v>
       </c>
       <c r="H10">
-        <v>7.775150178497715</v>
+        <v>14.20622291105895</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.275866470722632</v>
+        <v>9.794544589754381</v>
       </c>
       <c r="K10">
-        <v>25.7019072422114</v>
+        <v>16.27480739136481</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19.86822230473557</v>
+        <v>17.78550089420347</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>12.74553450124513</v>
+        <v>21.58442199459504</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.191582382455715</v>
+        <v>5.67762347969589</v>
       </c>
       <c r="D11">
-        <v>7.777879486633061</v>
+        <v>9.824450889115779</v>
       </c>
       <c r="E11">
-        <v>8.90294276641319</v>
+        <v>13.63086117659455</v>
       </c>
       <c r="F11">
-        <v>19.67301127670218</v>
+        <v>29.13288550869847</v>
       </c>
       <c r="G11">
-        <v>20.95156052918573</v>
+        <v>28.35868685349344</v>
       </c>
       <c r="H11">
-        <v>7.72102357487546</v>
+        <v>14.16188527567567</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.231071620517025</v>
+        <v>9.772606876965188</v>
       </c>
       <c r="K11">
-        <v>26.56753894360185</v>
+        <v>16.69213334872774</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>20.55274968399186</v>
+        <v>17.98640727841314</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>12.75791148432995</v>
+        <v>21.50950282022686</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.312694040620901</v>
+        <v>5.724848352590953</v>
       </c>
       <c r="D12">
-        <v>7.840048825743528</v>
+        <v>9.833778192643861</v>
       </c>
       <c r="E12">
-        <v>8.936764939587883</v>
+        <v>13.62677755532459</v>
       </c>
       <c r="F12">
-        <v>19.76095067229015</v>
+        <v>29.10886976604905</v>
       </c>
       <c r="G12">
-        <v>21.09483282667179</v>
+        <v>28.32746027365183</v>
       </c>
       <c r="H12">
-        <v>7.702247121130994</v>
+        <v>14.14553253480087</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.214587989736895</v>
+        <v>9.764487277979931</v>
       </c>
       <c r="K12">
-        <v>26.88858887606537</v>
+        <v>16.84734719943774</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>20.80661048661655</v>
+        <v>18.06205424757143</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>12.76690048565627</v>
+        <v>21.48205895839591</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.286715808583343</v>
+        <v>5.714703001592534</v>
       </c>
       <c r="D13">
-        <v>7.826679313681148</v>
+        <v>9.831761952275651</v>
       </c>
       <c r="E13">
-        <v>8.929441927437351</v>
+        <v>13.62764082685627</v>
       </c>
       <c r="F13">
-        <v>19.74179170003774</v>
+        <v>29.11398153483243</v>
       </c>
       <c r="G13">
-        <v>21.06363438737589</v>
+        <v>28.33409831590913</v>
       </c>
       <c r="H13">
-        <v>7.706212203207656</v>
+        <v>14.1490349464169</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.2181163281874</v>
+        <v>9.766227635292502</v>
       </c>
       <c r="K13">
-        <v>26.81974425113075</v>
+        <v>16.81404568983853</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>20.75217429942882</v>
+        <v>18.04578245922945</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>12.7647685754153</v>
+        <v>21.48792820323989</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.201593833166907</v>
+        <v>5.681520069614502</v>
       </c>
       <c r="D14">
-        <v>7.783003048583286</v>
+        <v>9.82521489292543</v>
       </c>
       <c r="E14">
-        <v>8.905707862806068</v>
+        <v>13.63051791021285</v>
       </c>
       <c r="F14">
-        <v>19.68014731395008</v>
+        <v>29.13088249019315</v>
       </c>
       <c r="G14">
-        <v>20.96319355962059</v>
+        <v>28.35607857828812</v>
       </c>
       <c r="H14">
-        <v>7.719443540412374</v>
+        <v>14.16053116499996</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.229705757489484</v>
+        <v>9.771935112319762</v>
       </c>
       <c r="K14">
-        <v>26.59408682642922</v>
+        <v>16.70495981348923</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>20.57374196914177</v>
+        <v>17.99263979174341</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>12.75856312599071</v>
+        <v>21.50722640200742</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.149145070494718</v>
+        <v>5.661120996713789</v>
       </c>
       <c r="D15">
-        <v>7.756192835588778</v>
+        <v>9.821226493846355</v>
       </c>
       <c r="E15">
-        <v>8.8912835530121</v>
+        <v>13.63232767138387</v>
       </c>
       <c r="F15">
-        <v>19.64302928842493</v>
+        <v>29.14141168595827</v>
       </c>
       <c r="G15">
-        <v>20.90267109048605</v>
+        <v>28.36979698211949</v>
       </c>
       <c r="H15">
-        <v>7.727776313968988</v>
+        <v>14.16762985405621</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.236867750111029</v>
+        <v>9.77545554438737</v>
       </c>
       <c r="K15">
-        <v>26.45498809170357</v>
+        <v>16.63777221248384</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>20.46375128092393</v>
+        <v>17.96003038372461</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>12.75533102658945</v>
+        <v>21.51916789960461</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.843815554211929</v>
+        <v>5.543127180475933</v>
       </c>
       <c r="D16">
-        <v>7.601706487130529</v>
+        <v>9.798709293409393</v>
       </c>
       <c r="E16">
-        <v>8.810357403697866</v>
+        <v>13.64342622276592</v>
       </c>
       <c r="F16">
-        <v>19.44004281955105</v>
+        <v>29.20445517185181</v>
       </c>
       <c r="G16">
-        <v>20.57109755548503</v>
+        <v>28.45230197580045</v>
       </c>
       <c r="H16">
-        <v>7.778920581460556</v>
+        <v>14.20918159284022</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.278859669591042</v>
+        <v>9.796004562693083</v>
       </c>
       <c r="K16">
-        <v>25.64438952004184</v>
+        <v>16.24714410783157</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>19.82273454976888</v>
+        <v>17.7723139654783</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>12.74531170280429</v>
+        <v>21.58944750356406</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.652220852821179</v>
+        <v>5.46980176278721</v>
       </c>
       <c r="D17">
-        <v>7.506211417809032</v>
+        <v>9.785201799015644</v>
       </c>
       <c r="E17">
-        <v>8.762252341916364</v>
+        <v>13.65088403723645</v>
       </c>
       <c r="F17">
-        <v>19.32407506760948</v>
+        <v>29.24553728428597</v>
       </c>
       <c r="G17">
-        <v>20.38120049450932</v>
+        <v>28.5063700569975</v>
       </c>
       <c r="H17">
-        <v>7.813211558997037</v>
+        <v>14.23544987402913</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.305448538981137</v>
+        <v>9.808945512469931</v>
       </c>
       <c r="K17">
-        <v>25.13504715851893</v>
+        <v>16.00257361244745</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>19.41989661262728</v>
+        <v>17.65645024195686</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>12.74651349307059</v>
+        <v>21.6342064719067</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.540433691864852</v>
+        <v>5.427296808108196</v>
       </c>
       <c r="D18">
-        <v>7.451033776314929</v>
+        <v>9.777546631041069</v>
       </c>
       <c r="E18">
-        <v>8.735146985213937</v>
+        <v>13.65541215182326</v>
       </c>
       <c r="F18">
-        <v>19.2604693078365</v>
+        <v>29.27004849997472</v>
       </c>
       <c r="G18">
-        <v>20.27689537405594</v>
+        <v>28.53873087909535</v>
       </c>
       <c r="H18">
-        <v>7.833963207249142</v>
+        <v>14.25084428486542</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.321038887299843</v>
+        <v>9.816511964255955</v>
       </c>
       <c r="K18">
-        <v>24.83763856401953</v>
+        <v>15.86011857815327</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>19.18465228767049</v>
+        <v>17.58956857372369</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>12.74980984327579</v>
+        <v>21.66055347797962</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.502310772352763</v>
+        <v>5.412850182257271</v>
       </c>
       <c r="D19">
-        <v>7.432309813223043</v>
+        <v>9.774974440118271</v>
       </c>
       <c r="E19">
-        <v>8.72606606842384</v>
+        <v>13.65698626771099</v>
       </c>
       <c r="F19">
-        <v>19.23946028019374</v>
+        <v>29.27849878070093</v>
       </c>
       <c r="G19">
-        <v>20.24241906098602</v>
+        <v>28.54990382451209</v>
       </c>
       <c r="H19">
-        <v>7.841162003052229</v>
+        <v>14.25610560087159</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.326367887646894</v>
+        <v>9.819094999563998</v>
       </c>
       <c r="K19">
-        <v>24.73617589644599</v>
+        <v>15.81158209513892</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>19.10439264794723</v>
+        <v>17.5668842564631</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>12.75136426018659</v>
+        <v>21.66957750802776</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.672780406239074</v>
+        <v>5.4776419012147</v>
       </c>
       <c r="D20">
-        <v>7.516403382587797</v>
+        <v>9.786627931279089</v>
       </c>
       <c r="E20">
-        <v>8.767314833810042</v>
+        <v>13.65006544799459</v>
       </c>
       <c r="F20">
-        <v>19.33609847339709</v>
+        <v>29.24107269177662</v>
       </c>
       <c r="G20">
-        <v>20.40090511499103</v>
+        <v>28.50048361543791</v>
       </c>
       <c r="H20">
-        <v>7.809453838734884</v>
+        <v>14.2326240089517</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.302587198364183</v>
+        <v>9.80755518252791</v>
       </c>
       <c r="K20">
-        <v>25.18972761145951</v>
+        <v>16.02879391881899</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>19.46314568185663</v>
+        <v>17.66880940729311</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>12.74611378051719</v>
+        <v>21.62937937671487</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.226660565085938</v>
+        <v>5.691282108919874</v>
       </c>
       <c r="D21">
-        <v>7.795843823177679</v>
+        <v>9.827133375223298</v>
       </c>
       <c r="E21">
-        <v>8.912655468211089</v>
+        <v>13.62966294965407</v>
       </c>
       <c r="F21">
-        <v>19.69811995706317</v>
+        <v>29.12588139545295</v>
       </c>
       <c r="G21">
-        <v>20.9924868097033</v>
+        <v>28.34956929229483</v>
       </c>
       <c r="H21">
-        <v>7.715509364520641</v>
+        <v>14.15714258307005</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.226288459728108</v>
+        <v>9.770253595868498</v>
       </c>
       <c r="K21">
-        <v>26.66055056539313</v>
+        <v>16.73707808626785</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>20.6262967604649</v>
+        <v>18.00826127009602</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>12.76026673792819</v>
+        <v>21.50153287099635</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.574785681147265</v>
+        <v>5.827655688693706</v>
       </c>
       <c r="D22">
-        <v>7.975949292926865</v>
+        <v>9.854588680163404</v>
       </c>
       <c r="E22">
-        <v>9.012716495168965</v>
+        <v>13.61845313969179</v>
       </c>
       <c r="F22">
-        <v>19.96328142082453</v>
+        <v>29.05850645892332</v>
       </c>
       <c r="G22">
-        <v>21.4237833568842</v>
+        <v>28.26232614928037</v>
       </c>
       <c r="H22">
-        <v>7.664206960954997</v>
+        <v>14.11035834333358</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.179228593277725</v>
+        <v>9.746968954378291</v>
       </c>
       <c r="K22">
-        <v>27.58252435533614</v>
+        <v>17.18352430953831</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>21.35529849150531</v>
+        <v>18.22756906762319</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>12.79472386865641</v>
+        <v>21.42337992652231</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.39024054546748</v>
+        <v>5.755182264618941</v>
       </c>
       <c r="D23">
-        <v>7.880067278045871</v>
+        <v>9.839846957395904</v>
       </c>
       <c r="E23">
-        <v>8.958845401017768</v>
+        <v>13.62424166753287</v>
       </c>
       <c r="F23">
-        <v>19.819102828967</v>
+        <v>29.09373937384439</v>
       </c>
       <c r="G23">
-        <v>21.1894746815718</v>
+        <v>28.30784043887867</v>
       </c>
       <c r="H23">
-        <v>7.690617000850025</v>
+        <v>14.13509469489359</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.204080322986004</v>
+        <v>9.759296420188301</v>
       </c>
       <c r="K23">
-        <v>27.09402793400849</v>
+        <v>16.94677835876874</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>20.96905152395524</v>
+        <v>18.11077231026275</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>12.77393130812452</v>
+        <v>21.46459567022701</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.663490533340099</v>
+        <v>5.474098458701302</v>
       </c>
       <c r="D24">
-        <v>7.51179645243738</v>
+        <v>9.785982832435554</v>
       </c>
       <c r="E24">
-        <v>8.765024365983972</v>
+        <v>13.65043478300452</v>
       </c>
       <c r="F24">
-        <v>19.33065315441695</v>
+        <v>29.24308835438814</v>
       </c>
       <c r="G24">
-        <v>20.39198150057922</v>
+        <v>28.50314090150932</v>
       </c>
       <c r="H24">
-        <v>7.81114948324263</v>
+        <v>14.23390067168867</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.303879865101297</v>
+        <v>9.808183356536613</v>
       </c>
       <c r="K24">
-        <v>25.16502085042332</v>
+        <v>16.01694546840755</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>19.44360414247314</v>
+        <v>17.66322266525295</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>12.74628639774679</v>
+        <v>21.63155979273275</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.818755472466115</v>
+        <v>5.158522975462247</v>
       </c>
       <c r="D25">
-        <v>7.105175147082801</v>
+        <v>9.732256547274149</v>
       </c>
       <c r="E25">
-        <v>8.57744963233923</v>
+        <v>13.68780861768319</v>
       </c>
       <c r="F25">
-        <v>18.92132642306595</v>
+        <v>29.43786477903777</v>
       </c>
       <c r="G25">
-        <v>19.71868062723924</v>
+        <v>28.76197038491345</v>
       </c>
       <c r="H25">
-        <v>7.980013682273644</v>
+        <v>14.35139573561624</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.422818981274141</v>
+        <v>9.865626241652796</v>
       </c>
       <c r="K25">
-        <v>22.91410394043422</v>
+        <v>14.94622151470824</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.66255120897383</v>
+        <v>17.1715588155867</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>12.81482862771569</v>
+        <v>21.83468575480094</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_75/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_75/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.917506253870776</v>
+        <v>7.143015644653247</v>
       </c>
       <c r="D2">
-        <v>9.696610877278069</v>
+        <v>6.799571501713621</v>
       </c>
       <c r="E2">
-        <v>13.72316626336374</v>
+        <v>8.457385142315085</v>
       </c>
       <c r="F2">
-        <v>29.6099356654798</v>
+        <v>18.71416001680973</v>
       </c>
       <c r="G2">
-        <v>28.99315455355914</v>
+        <v>19.37496139985111</v>
       </c>
       <c r="H2">
-        <v>14.44729006807796</v>
+        <v>8.133252375805565</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.911994425744528</v>
+        <v>5.51939428999755</v>
       </c>
       <c r="K2">
-        <v>14.10343815003689</v>
+        <v>21.10899940088024</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.80414170420432</v>
+        <v>16.29653115367639</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>22.00389371730394</v>
+        <v>12.93881766473323</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.749967865506476</v>
+        <v>6.650819324522164</v>
       </c>
       <c r="D3">
-        <v>9.674964650762169</v>
+        <v>6.589727253151698</v>
       </c>
       <c r="E3">
-        <v>13.75201404084057</v>
+        <v>8.386991076345492</v>
       </c>
       <c r="F3">
-        <v>29.74426335292127</v>
+        <v>18.62837025700198</v>
       </c>
       <c r="G3">
-        <v>29.17473534243246</v>
+        <v>19.23038337361524</v>
       </c>
       <c r="H3">
-        <v>14.51812966689989</v>
+        <v>8.253119737089925</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.94597073408687</v>
+        <v>5.590160010326368</v>
       </c>
       <c r="K3">
-        <v>13.50087353984994</v>
+        <v>19.79317291120009</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.55297541014077</v>
+        <v>15.36189912312746</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>22.13074518779434</v>
+        <v>13.0631726995317</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.645491827508812</v>
+        <v>6.331494259745509</v>
       </c>
       <c r="D4">
-        <v>9.662934505219589</v>
+        <v>6.459973234744141</v>
       </c>
       <c r="E4">
-        <v>13.77213439681326</v>
+        <v>8.349067050026383</v>
       </c>
       <c r="F4">
-        <v>29.8354222229928</v>
+        <v>18.60105676127475</v>
       </c>
       <c r="G4">
-        <v>29.2983656463721</v>
+        <v>19.18246030180984</v>
       </c>
       <c r="H4">
-        <v>14.56451092798892</v>
+        <v>8.334018098413955</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.968094908805655</v>
+        <v>5.636146754175011</v>
       </c>
       <c r="K4">
-        <v>13.11646922174864</v>
+        <v>18.93968181953576</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.39811253292635</v>
+        <v>14.7609063447649</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>22.21461342758883</v>
+        <v>13.15762862866499</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.602589742871721</v>
+        <v>6.197031042760526</v>
       </c>
       <c r="D5">
-        <v>9.658352420355696</v>
+        <v>6.4069412734871</v>
       </c>
       <c r="E5">
-        <v>13.78093870230616</v>
+        <v>8.334925765969208</v>
       </c>
       <c r="F5">
-        <v>29.8747445970914</v>
+        <v>18.59605260743677</v>
       </c>
       <c r="G5">
-        <v>29.35177645697625</v>
+        <v>19.17274114001499</v>
       </c>
       <c r="H5">
-        <v>14.58413707858025</v>
+        <v>8.368737563310544</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.977428685119964</v>
+        <v>5.655512877131718</v>
       </c>
       <c r="K5">
-        <v>12.95638012159332</v>
+        <v>18.5804502957784</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.33490770073204</v>
+        <v>14.50933337822081</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>22.25029046147701</v>
+        <v>13.20041366071374</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.5954484803122</v>
+        <v>6.174440736705869</v>
       </c>
       <c r="D6">
-        <v>9.657611005239222</v>
+        <v>6.398128135066757</v>
       </c>
       <c r="E6">
-        <v>13.7824371855153</v>
+        <v>8.332656308909405</v>
       </c>
       <c r="F6">
-        <v>29.88140512208815</v>
+        <v>18.59558406046945</v>
       </c>
       <c r="G6">
-        <v>29.36082766573555</v>
+        <v>19.17170538975111</v>
       </c>
       <c r="H6">
-        <v>14.58743979476639</v>
+        <v>8.374606264394213</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.978997772776015</v>
+        <v>5.658766106758969</v>
       </c>
       <c r="K6">
-        <v>12.92959557066955</v>
+        <v>18.52011138762058</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.32440865780165</v>
+        <v>14.46716279497144</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>22.25630509173292</v>
+        <v>13.20777002468543</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.644914454135577</v>
+        <v>6.329698438883884</v>
       </c>
       <c r="D7">
-        <v>9.662871408578141</v>
+        <v>6.459258560194238</v>
       </c>
       <c r="E7">
-        <v>13.77225068524274</v>
+        <v>8.348871046489457</v>
       </c>
       <c r="F7">
-        <v>29.83594374569102</v>
+        <v>18.60096481088975</v>
       </c>
       <c r="G7">
-        <v>29.29907372231997</v>
+        <v>19.18229014994041</v>
       </c>
       <c r="H7">
-        <v>14.5647726761651</v>
+        <v>8.334479345293154</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.968219499148038</v>
+        <v>5.636405411735098</v>
       </c>
       <c r="K7">
-        <v>13.11432387196642</v>
+        <v>18.93488330692432</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.39726043601362</v>
+        <v>14.75754028750358</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>22.21508851206016</v>
+        <v>13.15818859300244</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.860116706718534</v>
+        <v>6.976838968250893</v>
       </c>
       <c r="D8">
-        <v>9.688887624216692</v>
+        <v>6.727447691314334</v>
       </c>
       <c r="E8">
-        <v>13.7326130748869</v>
+        <v>8.432002861299488</v>
       </c>
       <c r="F8">
-        <v>29.65444500336345</v>
+        <v>18.67916976359393</v>
       </c>
       <c r="G8">
-        <v>29.05323103635409</v>
+        <v>19.31637049556625</v>
       </c>
       <c r="H8">
-        <v>14.47111658292362</v>
+        <v>8.173015911627385</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.923447713486961</v>
+        <v>5.543260551582263</v>
       </c>
       <c r="K8">
-        <v>13.89877238499454</v>
+        <v>20.66477222447914</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.71771257518236</v>
+        <v>15.97998242854838</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>22.04638840378065</v>
+        <v>12.97778027621621</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.266315428261748</v>
+        <v>8.111562315448442</v>
       </c>
       <c r="D9">
-        <v>9.749756310899205</v>
+        <v>7.243247963767836</v>
       </c>
       <c r="E9">
-        <v>13.67400095835449</v>
+        <v>8.637798708248184</v>
       </c>
       <c r="F9">
-        <v>29.36778117698427</v>
+        <v>19.04406912691959</v>
       </c>
       <c r="G9">
-        <v>28.66841932506133</v>
+        <v>19.92115727595107</v>
       </c>
       <c r="H9">
-        <v>14.31035938735783</v>
+        <v>7.918355533786577</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.845645254196659</v>
+        <v>5.381312315810153</v>
       </c>
       <c r="K9">
-        <v>15.31564081568551</v>
+        <v>23.69520971182381</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.33817253108766</v>
+        <v>18.28079595467209</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>21.76319992149926</v>
+        <v>12.7795756246462</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.551448256862575</v>
+        <v>8.865463687705475</v>
       </c>
       <c r="D10">
-        <v>9.800265929788482</v>
+        <v>7.612568021633384</v>
       </c>
       <c r="E10">
-        <v>13.64260756302609</v>
+        <v>8.815923071146239</v>
       </c>
       <c r="F10">
-        <v>29.1998871089558</v>
+        <v>19.45369868778614</v>
       </c>
       <c r="G10">
-        <v>28.4463039870212</v>
+        <v>20.59343626957353</v>
       </c>
       <c r="H10">
-        <v>14.20622291105895</v>
+        <v>7.77515017849771</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.794544589754381</v>
+        <v>5.275866470722754</v>
       </c>
       <c r="K10">
-        <v>16.27480739136481</v>
+        <v>25.70190724221139</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.78550089420347</v>
+        <v>19.86822230473555</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>21.58442199459504</v>
+        <v>12.74553450124511</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.67762347969589</v>
+        <v>9.191582382455815</v>
       </c>
       <c r="D11">
-        <v>9.824450889115779</v>
+        <v>7.777879486633078</v>
       </c>
       <c r="E11">
-        <v>13.63086117659455</v>
+        <v>8.902942766413231</v>
       </c>
       <c r="F11">
-        <v>29.13288550869847</v>
+        <v>19.6730112767022</v>
       </c>
       <c r="G11">
-        <v>28.35868685349344</v>
+        <v>20.95156052918568</v>
       </c>
       <c r="H11">
-        <v>14.16188527567567</v>
+        <v>7.721023574875491</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.772606876965188</v>
+        <v>5.231071620517028</v>
       </c>
       <c r="K11">
-        <v>16.69213334872774</v>
+        <v>26.56753894360187</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.98640727841314</v>
+        <v>20.55274968399184</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>21.50950282022686</v>
+        <v>12.75791148432994</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.724848352590953</v>
+        <v>9.312694040620986</v>
       </c>
       <c r="D12">
-        <v>9.833778192643861</v>
+        <v>7.840048825743481</v>
       </c>
       <c r="E12">
-        <v>13.62677755532459</v>
+        <v>8.936764939587825</v>
       </c>
       <c r="F12">
-        <v>29.10886976604905</v>
+        <v>19.76095067229006</v>
       </c>
       <c r="G12">
-        <v>28.32746027365183</v>
+        <v>21.09483282667167</v>
       </c>
       <c r="H12">
-        <v>14.14553253480087</v>
+        <v>7.702247121130943</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.764487277979931</v>
+        <v>5.214587989736868</v>
       </c>
       <c r="K12">
-        <v>16.84734719943774</v>
+        <v>26.88858887606536</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.06205424757143</v>
+        <v>20.80661048661655</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>21.48205895839591</v>
+        <v>12.76690048565622</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.714703001592534</v>
+        <v>9.286715808583203</v>
       </c>
       <c r="D13">
-        <v>9.831761952275651</v>
+        <v>7.826679313681173</v>
       </c>
       <c r="E13">
-        <v>13.62764082685627</v>
+        <v>8.929441927437393</v>
       </c>
       <c r="F13">
-        <v>29.11398153483243</v>
+        <v>19.74179170003772</v>
       </c>
       <c r="G13">
-        <v>28.33409831590913</v>
+        <v>21.06363438737591</v>
       </c>
       <c r="H13">
-        <v>14.1490349464169</v>
+        <v>7.706212203207624</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.766227635292502</v>
+        <v>5.21811632818743</v>
       </c>
       <c r="K13">
-        <v>16.81404568983853</v>
+        <v>26.81974425113076</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.04578245922945</v>
+        <v>20.75217429942882</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>21.48792820323989</v>
+        <v>12.76476857541529</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.681520069614502</v>
+        <v>9.201593833167077</v>
       </c>
       <c r="D14">
-        <v>9.82521489292543</v>
+        <v>7.783003048583277</v>
       </c>
       <c r="E14">
-        <v>13.63051791021285</v>
+        <v>8.905707862806098</v>
       </c>
       <c r="F14">
-        <v>29.13088249019315</v>
+        <v>19.68014731395009</v>
       </c>
       <c r="G14">
-        <v>28.35607857828812</v>
+        <v>20.96319355962066</v>
       </c>
       <c r="H14">
-        <v>14.16053116499996</v>
+        <v>7.719443540412284</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.771935112319762</v>
+        <v>5.229705757489543</v>
       </c>
       <c r="K14">
-        <v>16.70495981348923</v>
+        <v>26.59408682642919</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.99263979174341</v>
+        <v>20.57374196914175</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>21.50722640200742</v>
+        <v>12.75856312599072</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.661120996713789</v>
+        <v>9.149145070494644</v>
       </c>
       <c r="D15">
-        <v>9.821226493846355</v>
+        <v>7.756192835588778</v>
       </c>
       <c r="E15">
-        <v>13.63232767138387</v>
+        <v>8.891283553012091</v>
       </c>
       <c r="F15">
-        <v>29.14141168595827</v>
+        <v>19.6430292884249</v>
       </c>
       <c r="G15">
-        <v>28.36979698211949</v>
+        <v>20.90267109048601</v>
       </c>
       <c r="H15">
-        <v>14.16762985405621</v>
+        <v>7.727776313969074</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.77545554438737</v>
+        <v>5.236867750111085</v>
       </c>
       <c r="K15">
-        <v>16.63777221248384</v>
+        <v>26.45498809170357</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.96003038372461</v>
+        <v>20.46375128092393</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>21.51916789960461</v>
+        <v>12.75533102658942</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.543127180475933</v>
+        <v>8.843815554211888</v>
       </c>
       <c r="D16">
-        <v>9.798709293409393</v>
+        <v>7.601706487130641</v>
       </c>
       <c r="E16">
-        <v>13.64342622276592</v>
+        <v>8.810357403698006</v>
       </c>
       <c r="F16">
-        <v>29.20445517185181</v>
+        <v>19.44004281955104</v>
       </c>
       <c r="G16">
-        <v>28.45230197580045</v>
+        <v>20.57109755548498</v>
       </c>
       <c r="H16">
-        <v>14.20918159284022</v>
+        <v>7.778920581460523</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.796004562693083</v>
+        <v>5.278859669591107</v>
       </c>
       <c r="K16">
-        <v>16.24714410783157</v>
+        <v>25.64438952004189</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.7723139654783</v>
+        <v>19.82273454976888</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>21.58944750356406</v>
+        <v>12.74531170280424</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.46980176278721</v>
+        <v>8.652220852821136</v>
       </c>
       <c r="D17">
-        <v>9.785201799015644</v>
+        <v>7.506211417809053</v>
       </c>
       <c r="E17">
-        <v>13.65088403723645</v>
+        <v>8.762252341916485</v>
       </c>
       <c r="F17">
-        <v>29.24553728428597</v>
+        <v>19.32407506760952</v>
       </c>
       <c r="G17">
-        <v>28.5063700569975</v>
+        <v>20.38120049450933</v>
       </c>
       <c r="H17">
-        <v>14.23544987402913</v>
+        <v>7.813211558997041</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.808945512469931</v>
+        <v>5.305448538981232</v>
       </c>
       <c r="K17">
-        <v>16.00257361244745</v>
+        <v>25.13504715851894</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.65645024195686</v>
+        <v>19.41989661262727</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>21.6342064719067</v>
+        <v>12.74651349307059</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.427296808108196</v>
+        <v>8.540433691864715</v>
       </c>
       <c r="D18">
-        <v>9.777546631041069</v>
+        <v>7.451033776314881</v>
       </c>
       <c r="E18">
-        <v>13.65541215182326</v>
+        <v>8.735146985213934</v>
       </c>
       <c r="F18">
-        <v>29.27004849997472</v>
+        <v>19.26046930783643</v>
       </c>
       <c r="G18">
-        <v>28.53873087909535</v>
+        <v>20.27689537405585</v>
       </c>
       <c r="H18">
-        <v>14.25084428486542</v>
+        <v>7.833963207249149</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.816511964255955</v>
+        <v>5.321038887299846</v>
       </c>
       <c r="K18">
-        <v>15.86011857815327</v>
+        <v>24.83763856401951</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.58956857372369</v>
+        <v>19.18465228767048</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>21.66055347797962</v>
+        <v>12.74980984327576</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.412850182257271</v>
+        <v>8.502310772352763</v>
       </c>
       <c r="D19">
-        <v>9.774974440118271</v>
+        <v>7.432309813222935</v>
       </c>
       <c r="E19">
-        <v>13.65698626771099</v>
+        <v>8.726066068423787</v>
       </c>
       <c r="F19">
-        <v>29.27849878070093</v>
+        <v>19.23946028019364</v>
       </c>
       <c r="G19">
-        <v>28.54990382451209</v>
+        <v>20.24241906098597</v>
       </c>
       <c r="H19">
-        <v>14.25610560087159</v>
+        <v>7.841162003052224</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.819094999563998</v>
+        <v>5.326367887646888</v>
       </c>
       <c r="K19">
-        <v>15.81158209513892</v>
+        <v>24.736175896446</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.5668842564631</v>
+        <v>19.10439264794725</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>21.66957750802776</v>
+        <v>12.75136426018654</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.4776419012147</v>
+        <v>8.672780406239131</v>
       </c>
       <c r="D20">
-        <v>9.786627931279089</v>
+        <v>7.516403382587801</v>
       </c>
       <c r="E20">
-        <v>13.65006544799459</v>
+        <v>8.76731483381004</v>
       </c>
       <c r="F20">
-        <v>29.24107269177662</v>
+        <v>19.33609847339702</v>
       </c>
       <c r="G20">
-        <v>28.50048361543791</v>
+        <v>20.40090511499091</v>
       </c>
       <c r="H20">
-        <v>14.2326240089517</v>
+        <v>7.809453838734835</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.80755518252791</v>
+        <v>5.302587198364213</v>
       </c>
       <c r="K20">
-        <v>16.02879391881899</v>
+        <v>25.18972761145955</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.66880940729311</v>
+        <v>19.46314568185667</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>21.62937937671487</v>
+        <v>12.74611378051712</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.691282108919874</v>
+        <v>9.226660565085936</v>
       </c>
       <c r="D21">
-        <v>9.827133375223298</v>
+        <v>7.795843823177664</v>
       </c>
       <c r="E21">
-        <v>13.62966294965407</v>
+        <v>8.912655468211135</v>
       </c>
       <c r="F21">
-        <v>29.12588139545295</v>
+        <v>19.69811995706309</v>
       </c>
       <c r="G21">
-        <v>28.34956929229483</v>
+        <v>20.99248680970319</v>
       </c>
       <c r="H21">
-        <v>14.15714258307005</v>
+        <v>7.715509364520597</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.770253595868498</v>
+        <v>5.22628845972814</v>
       </c>
       <c r="K21">
-        <v>16.73707808626785</v>
+        <v>26.66055056539317</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.00826127009602</v>
+        <v>20.62629676046493</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>21.50153287099635</v>
+        <v>12.7602667379281</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.827655688693706</v>
+        <v>9.574785681147207</v>
       </c>
       <c r="D22">
-        <v>9.854588680163404</v>
+        <v>7.975949292926845</v>
       </c>
       <c r="E22">
-        <v>13.61845313969179</v>
+        <v>9.012716495168922</v>
       </c>
       <c r="F22">
-        <v>29.05850645892332</v>
+        <v>19.96328142082461</v>
       </c>
       <c r="G22">
-        <v>28.26232614928037</v>
+        <v>21.42378335688428</v>
       </c>
       <c r="H22">
-        <v>14.11035834333358</v>
+        <v>7.664206960955096</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.746968954378291</v>
+        <v>5.179228593277727</v>
       </c>
       <c r="K22">
-        <v>17.18352430953831</v>
+        <v>27.5825243553361</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.22756906762319</v>
+        <v>21.35529849150529</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>21.42337992652231</v>
+        <v>12.79472386865651</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.755182264618941</v>
+        <v>9.390240545467615</v>
       </c>
       <c r="D23">
-        <v>9.839846957395904</v>
+        <v>7.880067278045834</v>
       </c>
       <c r="E23">
-        <v>13.62424166753287</v>
+        <v>8.958845401017799</v>
       </c>
       <c r="F23">
-        <v>29.09373937384439</v>
+        <v>19.81910282896692</v>
       </c>
       <c r="G23">
-        <v>28.30784043887867</v>
+        <v>21.18947468157185</v>
       </c>
       <c r="H23">
-        <v>14.13509469489359</v>
+        <v>7.690617000849929</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.759296420188301</v>
+        <v>5.20408032298612</v>
       </c>
       <c r="K23">
-        <v>16.94677835876874</v>
+        <v>27.09402793400854</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.11077231026275</v>
+        <v>20.96905152395527</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>21.46459567022701</v>
+        <v>12.77393130812446</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.474098458701302</v>
+        <v>8.66349053334004</v>
       </c>
       <c r="D24">
-        <v>9.785982832435554</v>
+        <v>7.511796452437445</v>
       </c>
       <c r="E24">
-        <v>13.65043478300452</v>
+        <v>8.765024365983971</v>
       </c>
       <c r="F24">
-        <v>29.24308835438814</v>
+        <v>19.33065315441695</v>
       </c>
       <c r="G24">
-        <v>28.50314090150932</v>
+        <v>20.39198150057919</v>
       </c>
       <c r="H24">
-        <v>14.23390067168867</v>
+        <v>7.81114948324263</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.808183356536613</v>
+        <v>5.303879865101237</v>
       </c>
       <c r="K24">
-        <v>16.01694546840755</v>
+        <v>25.16502085042329</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.66322266525295</v>
+        <v>19.44360414247311</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.63155979273275</v>
+        <v>12.74628639774678</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.158522975462247</v>
+        <v>7.818755472466021</v>
       </c>
       <c r="D25">
-        <v>9.732256547274149</v>
+        <v>7.1051751470828</v>
       </c>
       <c r="E25">
-        <v>13.68780861768319</v>
+        <v>8.577449632339269</v>
       </c>
       <c r="F25">
-        <v>29.43786477903777</v>
+        <v>18.92132642306587</v>
       </c>
       <c r="G25">
-        <v>28.76197038491345</v>
+        <v>19.7186806272391</v>
       </c>
       <c r="H25">
-        <v>14.35139573561624</v>
+        <v>7.98001368227364</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.865626241652796</v>
+        <v>5.422818981274171</v>
       </c>
       <c r="K25">
-        <v>14.94622151470824</v>
+        <v>22.91410394043424</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.1715588155867</v>
+        <v>17.66255120897383</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>21.83468575480094</v>
+        <v>12.81482862771561</v>
       </c>
     </row>
   </sheetData>
